--- a/data/Eye_Disease_Drugs.xlsx
+++ b/data/Eye_Disease_Drugs.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Drug_name</t>
   </si>
   <si>
-    <t xml:space="preserve">DISORDER</t>
+    <t xml:space="preserve">Disease</t>
   </si>
   <si>
     <t xml:space="preserve">Disease_class</t>
@@ -3673,8 +3673,8 @@
   </sheetPr>
   <dimension ref="A1:J387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
